--- a/envo/document/data/list/10.xlsx
+++ b/envo/document/data/list/10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Cái đục - Chisel</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Thước dây - Tape measure</t>
   </si>
   <si>
-    <t>Ống nước - Pipe</t>
-  </si>
-  <si>
     <t>Hộp dụng cụ - Toolbox</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Bàn để ủi quần áo - Ironing board</t>
   </si>
   <si>
-    <t>Bật lửa - Lighter</t>
-  </si>
-  <si>
     <t>Hộp diêm - Match book</t>
   </si>
   <si>
@@ -148,6 +142,9 @@
   </si>
   <si>
     <t>Máy hút bụi - Vacuum cleaner</t>
+  </si>
+  <si>
+    <t>Ống nước - water pipe</t>
   </si>
 </sst>
 </file>
@@ -479,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,167 +545,162 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/envo/document/data/list/10.xlsx
+++ b/envo/document/data/list/10.xlsx
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
